--- a/export.xlsx
+++ b/export.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
-    <t>name</t>
+    <t>نام</t>
   </si>
   <si>
     <t>publish year</t>
@@ -110,7 +110,7 @@
     <t>1984</t>
   </si>
   <si>
-    <t>History</t>
+    <t>تاریخچه</t>
   </si>
 </sst>
 </file>
